--- a/gushou/report/gushouReport.xlsx
+++ b/gushou/report/gushouReport.xlsx
@@ -171,12 +171,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Annualized Yield'!$A$2:$A$255</f>
+              <f>'Annualized Yield'!$A$2:$A$256</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Annualized Yield'!$B$3:$B$255</f>
+              <f>'Annualized Yield'!$B$3:$B$256</f>
             </numRef>
           </val>
         </ser>
@@ -606,14 +606,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.273</v>
+        <v>1.2728</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4</v>
@@ -627,14 +627,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1552</v>
+        <v>1.1551</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="E3" t="n">
         <v>-0.63</v>
@@ -648,14 +648,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.1825</v>
+        <v>1.1823</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="E4" t="n">
         <v>-0.61</v>
@@ -669,14 +669,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.1882</v>
+        <v>1.1878</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.21</v>
+        <v>-0.24</v>
       </c>
       <c r="E5" t="n">
         <v>-0.68</v>
@@ -690,14 +690,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1341</v>
+        <v>1.1338</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.14</v>
+        <v>-0.17</v>
       </c>
       <c r="E6" t="n">
         <v>-0.49</v>
@@ -711,14 +711,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.2723</v>
+        <v>1.2726</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="E7" t="n">
         <v>-2.33</v>
@@ -732,14 +732,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.5094</v>
+        <v>1.509</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3</v>
+        <v>-0.32</v>
       </c>
       <c r="E8" t="n">
         <v>-3.96</v>
@@ -756,7 +756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2810,6 +2810,14 @@
         <v>-0.08056572144459329</v>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-0.1014240755493269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/gushou/report/gushouReport.xlsx
+++ b/gushou/report/gushouReport.xlsx
@@ -171,12 +171,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Annualized Yield'!$A$2:$A$256</f>
+              <f>'Annualized Yield'!$A$2:$A$264</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Annualized Yield'!$B$3:$B$256</f>
+              <f>'Annualized Yield'!$B$3:$B$264</f>
             </numRef>
           </val>
         </ser>
@@ -563,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,14 +606,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2728</v>
+        <v>1.2745</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4</v>
@@ -627,14 +627,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1551</v>
+        <v>1.1567</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0.63</v>
@@ -648,14 +648,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.1823</v>
+        <v>1.1836</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.12</v>
+        <v>-0.01</v>
       </c>
       <c r="E4" t="n">
         <v>-0.61</v>
@@ -669,14 +669,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.1878</v>
+        <v>1.1902</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.24</v>
+        <v>-0.04</v>
       </c>
       <c r="E5" t="n">
         <v>-0.68</v>
@@ -690,14 +690,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1338</v>
+        <v>1.1348</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.17</v>
+        <v>-0.08</v>
       </c>
       <c r="E6" t="n">
         <v>-0.49</v>
@@ -711,14 +711,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.2726</v>
+        <v>1.2773</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>-2.33</v>
@@ -732,17 +732,59 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.509</v>
+        <v>1.5118</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.32</v>
+        <v>-0.14</v>
       </c>
       <c r="E8" t="n">
         <v>-3.96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>007229</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0544</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4.96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>008383</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.9291</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.13</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B257"/>
+  <dimension ref="A1:B265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2818,6 +2860,70 @@
         <v>-0.1014240755493269</v>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-0.05454032450714197</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.005107062578867394</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.06853054498475686</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-0.05692452254375935</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-0.06646637549971757</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.06843026747796355</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.1768895518089928</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.293020502835037</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/gushou/report/gushouReport.xlsx
+++ b/gushou/report/gushouReport.xlsx
@@ -171,12 +171,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Annualized Yield'!$A$2:$A$264</f>
+              <f>'Annualized Yield'!$A$2:$A$266</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Annualized Yield'!$B$3:$B$264</f>
+              <f>'Annualized Yield'!$B$3:$B$266</f>
             </numRef>
           </val>
         </ser>
@@ -606,14 +606,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2745</v>
+        <v>1.2744</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4</v>
@@ -627,14 +627,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1567</v>
+        <v>1.1558</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="E3" t="n">
         <v>-0.63</v>
@@ -648,14 +648,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.1836</v>
+        <v>1.1838</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>-0.61</v>
@@ -669,14 +669,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.1902</v>
+        <v>1.1898</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="E5" t="n">
         <v>-0.68</v>
@@ -690,14 +690,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1348</v>
+        <v>1.1351</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.08</v>
+        <v>-0.05</v>
       </c>
       <c r="E6" t="n">
         <v>-0.49</v>
@@ -711,11 +711,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.2773</v>
+        <v>1.2782</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -732,14 +732,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.5118</v>
+        <v>1.5103</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.14</v>
+        <v>-0.24</v>
       </c>
       <c r="E8" t="n">
         <v>-3.96</v>
@@ -753,14 +753,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.0544</v>
+        <v>2.0513</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="E9" t="n">
         <v>-4.96</v>
@@ -774,14 +774,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.9291</v>
+        <v>1.9295</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="E10" t="n">
         <v>-2.13</v>
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B265"/>
+  <dimension ref="A1:B267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2924,6 +2924,22 @@
         <v>0.293020502835037</v>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.1857366797845588</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.1270553579139817</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/gushou/report/gushouReport.xlsx
+++ b/gushou/report/gushouReport.xlsx
@@ -171,12 +171,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Annualized Yield'!$A$2:$A$266</f>
+              <f>'Annualized Yield'!$A$2:$A$276</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Annualized Yield'!$B$3:$B$266</f>
+              <f>'Annualized Yield'!$B$3:$B$276</f>
             </numRef>
           </val>
         </ser>
@@ -606,14 +606,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2744</v>
+        <v>1.2732</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02</v>
+        <v>-0.11</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4</v>
@@ -627,14 +627,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1558</v>
+        <v>1.1519</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.08</v>
+        <v>-0.41</v>
       </c>
       <c r="E3" t="n">
         <v>-0.63</v>
@@ -648,14 +648,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.1838</v>
+        <v>1.182</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="E4" t="n">
         <v>-0.61</v>
@@ -669,14 +669,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.1898</v>
+        <v>1.1841</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.08</v>
+        <v>-0.55</v>
       </c>
       <c r="E5" t="n">
         <v>-0.68</v>
@@ -690,14 +690,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1351</v>
+        <v>1.1327</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.05</v>
+        <v>-0.26</v>
       </c>
       <c r="E6" t="n">
         <v>-0.49</v>
@@ -711,14 +711,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.2782</v>
+        <v>1.2747</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
       <c r="E7" t="n">
         <v>-2.33</v>
@@ -732,14 +732,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.5103</v>
+        <v>1.5021</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.24</v>
+        <v>-0.78</v>
       </c>
       <c r="E8" t="n">
         <v>-3.96</v>
@@ -753,14 +753,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.0513</v>
+        <v>2.0326</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.15</v>
+        <v>-1.06</v>
       </c>
       <c r="E9" t="n">
         <v>-4.96</v>
@@ -774,14 +774,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.9295</v>
+        <v>1.9251</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
         <v>-2.13</v>
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B267"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2940,6 +2940,86 @@
         <v>0.1270553579139817</v>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.2011173946791167</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.162038757730957</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.04418120180277985</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-0.08049415581646813</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-0.2126870735861195</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-0.2480619032472918</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-0.1525204460766971</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-0.2424567994929783</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.2930683403224127</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.3781031718750502</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/gushou/report/gushouReport.xlsx
+++ b/gushou/report/gushouReport.xlsx
@@ -171,12 +171,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Annualized Yield'!$A$2:$A$276</f>
+              <f>'Annualized Yield'!$A$2:$A$277</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Annualized Yield'!$B$3:$B$276</f>
+              <f>'Annualized Yield'!$B$3:$B$277</f>
             </numRef>
           </val>
         </ser>
@@ -606,7 +606,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -648,14 +648,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.182</v>
+        <v>1.1819</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="E4" t="n">
         <v>-0.61</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -690,14 +690,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1327</v>
+        <v>1.1324</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.26</v>
+        <v>-0.29</v>
       </c>
       <c r="E6" t="n">
         <v>-0.49</v>
@@ -711,14 +711,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.2747</v>
+        <v>1.2741</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.27</v>
+        <v>-0.32</v>
       </c>
       <c r="E7" t="n">
         <v>-2.33</v>
@@ -732,14 +732,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.5021</v>
+        <v>1.5022</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.78</v>
+        <v>-0.77</v>
       </c>
       <c r="E8" t="n">
         <v>-3.96</v>
@@ -753,14 +753,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.0326</v>
+        <v>2.0343</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.06</v>
+        <v>-0.98</v>
       </c>
       <c r="E9" t="n">
         <v>-4.96</v>
@@ -774,14 +774,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.9251</v>
+        <v>1.9246</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.25</v>
+        <v>-0.27</v>
       </c>
       <c r="E10" t="n">
         <v>-2.13</v>
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B277"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3020,6 +3020,14 @@
         <v>-0.3781031718750502</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.3095028398800832</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/gushou/report/gushouReport.xlsx
+++ b/gushou/report/gushouReport.xlsx
@@ -171,12 +171,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Annualized Yield'!$A$2:$A$277</f>
+              <f>'Annualized Yield'!$A$2:$A$278</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Annualized Yield'!$B$3:$B$277</f>
+              <f>'Annualized Yield'!$B$3:$B$278</f>
             </numRef>
           </val>
         </ser>
@@ -606,14 +606,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2732</v>
+        <v>1.2733</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4</v>
@@ -627,14 +627,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1519</v>
+        <v>1.1521</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.41</v>
+        <v>-0.4</v>
       </c>
       <c r="E3" t="n">
         <v>-0.63</v>
@@ -648,14 +648,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.1819</v>
+        <v>1.182</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="E4" t="n">
         <v>-0.61</v>
@@ -669,11 +669,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.1841</v>
+        <v>1.1842</v>
       </c>
       <c r="D5" t="n">
         <v>-0.55</v>
@@ -690,14 +690,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1324</v>
+        <v>1.1325</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.29</v>
+        <v>-0.28</v>
       </c>
       <c r="E6" t="n">
         <v>-0.49</v>
@@ -711,14 +711,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.2741</v>
+        <v>1.2752</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.32</v>
+        <v>-0.23</v>
       </c>
       <c r="E7" t="n">
         <v>-2.33</v>
@@ -732,7 +732,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -753,11 +753,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.0343</v>
+        <v>2.0342</v>
       </c>
       <c r="D9" t="n">
         <v>-0.98</v>
@@ -774,11 +774,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.9246</v>
+        <v>1.9247</v>
       </c>
       <c r="D10" t="n">
         <v>-0.27</v>
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3028,6 +3028,14 @@
         <v>-0.3095028398800832</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>45714</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-0.2412668947804703</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/gushou/report/gushouReport.xlsx
+++ b/gushou/report/gushouReport.xlsx
@@ -171,12 +171,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Annualized Yield'!$A$2:$A$278</f>
+              <f>'Annualized Yield'!$A$2:$A$281</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Annualized Yield'!$B$3:$B$278</f>
+              <f>'Annualized Yield'!$B$3:$B$281</f>
             </numRef>
           </val>
         </ser>
@@ -606,14 +606,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2733</v>
+        <v>1.2735</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4</v>
@@ -627,14 +627,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1521</v>
+        <v>1.1541</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4</v>
+        <v>-0.22</v>
       </c>
       <c r="E3" t="n">
         <v>-0.63</v>
@@ -648,14 +648,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.182</v>
+        <v>1.1822</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.16</v>
+        <v>-0.14</v>
       </c>
       <c r="E4" t="n">
         <v>-0.61</v>
@@ -669,14 +669,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.1842</v>
+        <v>1.1845</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.55</v>
+        <v>-0.52</v>
       </c>
       <c r="E5" t="n">
         <v>-0.68</v>
@@ -690,14 +690,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1325</v>
+        <v>1.1326</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.28</v>
+        <v>-0.27</v>
       </c>
       <c r="E6" t="n">
         <v>-0.49</v>
@@ -711,14 +711,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.2752</v>
+        <v>1.2727</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.23</v>
+        <v>-0.43</v>
       </c>
       <c r="E7" t="n">
         <v>-2.33</v>
@@ -732,14 +732,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.5022</v>
+        <v>1.5032</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.77</v>
+        <v>-0.71</v>
       </c>
       <c r="E8" t="n">
         <v>-3.96</v>
@@ -753,14 +753,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.0342</v>
+        <v>2.037</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.98</v>
+        <v>-0.85</v>
       </c>
       <c r="E9" t="n">
         <v>-4.96</v>
@@ -774,11 +774,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.9247</v>
+        <v>1.9246</v>
       </c>
       <c r="D10" t="n">
         <v>-0.27</v>
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3036,6 +3036,30 @@
         <v>-0.2412668947804703</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.2588136721826608</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-0.2451676877373685</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-0.1064108300416291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/gushou/report/gushouReport.xlsx
+++ b/gushou/report/gushouReport.xlsx
@@ -171,12 +171,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Annualized Yield'!$A$2:$A$281</f>
+              <f>'Annualized Yield'!$A$2:$A$282</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Annualized Yield'!$B$3:$B$281</f>
+              <f>'Annualized Yield'!$B$3:$B$282</f>
             </numRef>
           </val>
         </ser>
@@ -606,14 +606,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2735</v>
+        <v>1.2737</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4</v>
@@ -627,7 +627,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -648,14 +648,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.1822</v>
+        <v>1.1824</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="E4" t="n">
         <v>-0.61</v>
@@ -669,14 +669,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.1845</v>
+        <v>1.1847</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.52</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="n">
         <v>-0.68</v>
@@ -690,14 +690,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1326</v>
+        <v>1.1328</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="E6" t="n">
         <v>-0.49</v>
@@ -711,14 +711,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.2727</v>
+        <v>1.2732</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.43</v>
+        <v>-0.39</v>
       </c>
       <c r="E7" t="n">
         <v>-2.33</v>
@@ -732,14 +732,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.5032</v>
+        <v>1.503</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.71</v>
+        <v>-0.72</v>
       </c>
       <c r="E8" t="n">
         <v>-3.96</v>
@@ -753,14 +753,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.037</v>
+        <v>2.0365</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.85</v>
+        <v>-0.87</v>
       </c>
       <c r="E9" t="n">
         <v>-4.96</v>
@@ -774,14 +774,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.9246</v>
+        <v>1.9248</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="E10" t="n">
         <v>-2.13</v>
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3060,6 +3060,14 @@
         <v>-0.1064108300416291</v>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-0.03519907896060814</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
